--- a/func.xlsx
+++ b/func.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1082087\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1082087\Desktop\ssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{706CBD15-8C58-420C-8AD3-0539C1096C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558C831-4538-4255-8C15-19185A3A6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1E4BCFC-6CFF-4140-AF51-69E49F4332DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -50,12 +50,6 @@
     <t>areaCode</t>
   </si>
   <si>
-    <t>João Silva</t>
-  </si>
-  <si>
-    <t>joao.silva@sp.senai.br</t>
-  </si>
-  <si>
     <t>COMMON</t>
   </si>
   <si>
@@ -66,6 +60,24 @@
   </si>
   <si>
     <t>TECHNICIAN</t>
+  </si>
+  <si>
+    <t>Vitor Rios</t>
+  </si>
+  <si>
+    <t>vitor.rios@sp.senai.br</t>
+  </si>
+  <si>
+    <t>Augusto Atanasio</t>
+  </si>
+  <si>
+    <t>augusto.atanasio@sp.senai.br</t>
+  </si>
+  <si>
+    <t>Maria Messias</t>
+  </si>
+  <si>
+    <t>maria.messias@sp.senai.br</t>
   </si>
 </sst>
 </file>
@@ -448,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B6E24-E669-4F2B-A946-F986EB9756A7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,30 +488,54 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{26CF9D09-15CB-4EFB-9D6F-1623980D6A3C}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{8BD8DE89-5C69-4340-9F40-A55C5F84FCD2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4EE30FB9-9A43-4BFA-B219-4BD430A4F716}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{024936F1-3625-4DC3-9FD1-4D6D2F6FA3FD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/func.xlsx
+++ b/func.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1082087\Desktop\ssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558C831-4538-4255-8C15-19185A3A6DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30D39B-2DA8-44B4-BE13-3030DD0256B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1E4BCFC-6CFF-4140-AF51-69E49F4332DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1E4BCFC-6CFF-4140-AF51-69E49F4332DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="319">
   <si>
     <t>name</t>
   </si>
@@ -53,24 +53,15 @@
     <t>COMMON</t>
   </si>
   <si>
-    <t>Henrique Simões</t>
-  </si>
-  <si>
     <t>henrique.sales@sp.senai.br</t>
   </si>
   <si>
-    <t>TECHNICIAN</t>
-  </si>
-  <si>
     <t>Vitor Rios</t>
   </si>
   <si>
     <t>vitor.rios@sp.senai.br</t>
   </si>
   <si>
-    <t>Augusto Atanasio</t>
-  </si>
-  <si>
     <t>augusto.atanasio@sp.senai.br</t>
   </si>
   <si>
@@ -78,24 +69,940 @@
   </si>
   <si>
     <t>maria.messias@sp.senai.br</t>
+  </si>
+  <si>
+    <t>cristiano.verissimo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>daniela.furquim@sp.senai.br</t>
+  </si>
+  <si>
+    <t>eduardo.hflorio@sp.senai.br</t>
+  </si>
+  <si>
+    <t>emanoel.chagas@sp.senai.br</t>
+  </si>
+  <si>
+    <t>fernando.pereira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>fernando.henrique@sp.senai.br</t>
+  </si>
+  <si>
+    <t>fernando.lauris@sp.senai.br</t>
+  </si>
+  <si>
+    <t>giovanny.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>julio.batista@sp.senai.br</t>
+  </si>
+  <si>
+    <t>liza.oliveira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marco.gsilva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>maria.girlene@sp.senai.br</t>
+  </si>
+  <si>
+    <t>mariana.asantos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>mariana.motta@sp.senai.br</t>
+  </si>
+  <si>
+    <t>maury.machado@sp.senai.br</t>
+  </si>
+  <si>
+    <t>Rafael.Benetti@sp.senai.br</t>
+  </si>
+  <si>
+    <t>tiago.neves@sp.senai.br</t>
+  </si>
+  <si>
+    <t>willian.franco@sp.senai.br</t>
+  </si>
+  <si>
+    <t>adriana.oliveira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>adriramos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>amsantos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>ailton.sacramento@sp.senai.br</t>
+  </si>
+  <si>
+    <t>alanlima@sp.senai.br</t>
+  </si>
+  <si>
+    <t>alan.fernandes@sp.senai.br</t>
+  </si>
+  <si>
+    <t>aldeimara.toaldo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>aldemar.filho@sp.senai.br</t>
+  </si>
+  <si>
+    <t>alexsandro.ribeiro@sp.senai.br</t>
+  </si>
+  <si>
+    <t>allan.sanches@sp.senai.br</t>
+  </si>
+  <si>
+    <t>andre.paz@sp.senai.br</t>
+  </si>
+  <si>
+    <t>andre.lsantos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>andressa.santiago@sp.senai.br</t>
+  </si>
+  <si>
+    <t>acavalari@sp.senai.br</t>
+  </si>
+  <si>
+    <t>antonio.alfredo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>antonio.marquezino@sp.senai.br</t>
+  </si>
+  <si>
+    <t>aflores@sp.senai.br</t>
+  </si>
+  <si>
+    <t>bruno.ramon@sp.senai.br</t>
+  </si>
+  <si>
+    <t>caio.garcia@sp.senai.br</t>
+  </si>
+  <si>
+    <t>caio.silva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>carlos.cleto@sp.senai.br</t>
+  </si>
+  <si>
+    <t>carlos.brito@sp.senai.br</t>
+  </si>
+  <si>
+    <t>catia.souza@sp.senai.br</t>
+  </si>
+  <si>
+    <t>celso.pinto@sp.senai.br</t>
+  </si>
+  <si>
+    <t>cesar.goncalves@sp.senai.br</t>
+  </si>
+  <si>
+    <t>christian.dias@sp.senai.br</t>
+  </si>
+  <si>
+    <t>claudia.p.silva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>cxavier@sp.senai.br</t>
+  </si>
+  <si>
+    <t>claudio.lima@sp.senai.br</t>
+  </si>
+  <si>
+    <t>clayton.barbieri@sp.senai.br</t>
+  </si>
+  <si>
+    <t>cleberson.vilela@sp.senai.br</t>
+  </si>
+  <si>
+    <t>daniel.asilva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>daniel.correa@sp.senai.br</t>
+  </si>
+  <si>
+    <t>dejair@sp.senai.br</t>
+  </si>
+  <si>
+    <t>denise.lisboa@sp.senai.br</t>
+  </si>
+  <si>
+    <t>dimitri.julio@sp.senai.br</t>
+  </si>
+  <si>
+    <t>diogo.farias@sp.senai.br</t>
+  </si>
+  <si>
+    <t>douglas.dreis@sp.senai.br</t>
+  </si>
+  <si>
+    <t>dulceni.oliveira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>edilson.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>edione.assuncao@sp.senai.br</t>
+  </si>
+  <si>
+    <t>edson.costa@sp.senai.br</t>
+  </si>
+  <si>
+    <t>eduardo.pereira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>eduardo.gomes@sp.senai.br</t>
+  </si>
+  <si>
+    <t>eduardo.augusto@sp.senai.br</t>
+  </si>
+  <si>
+    <t>eduardo.vieira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>eleonora.rossi@sp.senai.br</t>
+  </si>
+  <si>
+    <t>eliana.araujo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>elisangela.henrique@sp.senai.br</t>
+  </si>
+  <si>
+    <t>emiliano.constenla@sp.senai.br</t>
+  </si>
+  <si>
+    <t>enio.queiroz@sp.senai.br</t>
+  </si>
+  <si>
+    <t>erick.c@sp.senai.br</t>
+  </si>
+  <si>
+    <t>estevao.francani@sp.senai.br</t>
+  </si>
+  <si>
+    <t>etiano@sp.senai.br</t>
+  </si>
+  <si>
+    <t>evandro.sgoncalves@sp.senai.br</t>
+  </si>
+  <si>
+    <t>everaldo.reis@sp.senai.br</t>
+  </si>
+  <si>
+    <t>fabio.saito@sp.senai.br</t>
+  </si>
+  <si>
+    <t>felipe.franca@sp.senai.br</t>
+  </si>
+  <si>
+    <t>gleiton.melo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>guilherme.rocillo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>gustavo.ferraz@sp.senai.br</t>
+  </si>
+  <si>
+    <t>gustavoborges@sp.senai.br</t>
+  </si>
+  <si>
+    <t>gustavo.feriani@sp.senai.br</t>
+  </si>
+  <si>
+    <t>gutenberg.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>helio.cardoso@sp.senai.br</t>
+  </si>
+  <si>
+    <t>hermom.moreira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>ivone.costa@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jaime.silva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jair.alves@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jaqueline.souza@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jarbas.pasoto@sp.senai.br</t>
+  </si>
+  <si>
+    <t>joao.cardenas@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jose.domingues@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jricardo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>Jose.Roberto@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jose.ferreira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>juliana.ferraz@sp.senai.br</t>
+  </si>
+  <si>
+    <t>jurandir.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>leandro.chianca@sp.senai.br</t>
+  </si>
+  <si>
+    <t>leandro.vallim@sp.senai.br</t>
+  </si>
+  <si>
+    <t>leonardo.paula@sp.senai.br</t>
+  </si>
+  <si>
+    <t>lucas.flores@sp.senai.br</t>
+  </si>
+  <si>
+    <t>lucas.capelini@sp.senai.br</t>
+  </si>
+  <si>
+    <t>luis.zambon@sp.senai.br</t>
+  </si>
+  <si>
+    <t>luis.djunior@sp.senai.br</t>
+  </si>
+  <si>
+    <t>luiz.dutra@sp.senai.br</t>
+  </si>
+  <si>
+    <t>mtolentino@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcelporto@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcelio.mata@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcelo.asilva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcelo.cavalcante@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcelo.azevedo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcelo.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcia.lopes@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcio.carneiro@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marcio.corazzim@sp.senai.br</t>
+  </si>
+  <si>
+    <t>mario.pfilho@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marli.poli@sp.senai.br</t>
+  </si>
+  <si>
+    <t>marta.mgomes@sp.senai.br</t>
+  </si>
+  <si>
+    <t>mauricio.geraldes@sp.senai.br</t>
+  </si>
+  <si>
+    <t>mauro.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>mayke.silva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>nildevania.souza@sp.senai.br</t>
+  </si>
+  <si>
+    <t>paulo.baia@sp.senai.br</t>
+  </si>
+  <si>
+    <t>paulo.andre@sp.senai.br</t>
+  </si>
+  <si>
+    <t>paulo.matos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>pedro.braga@sp.senai.br</t>
+  </si>
+  <si>
+    <t>pedro.costa@sp.senai.br</t>
+  </si>
+  <si>
+    <t>priscila.medina@sp.senai.br</t>
+  </si>
+  <si>
+    <t>reginaldo.bochicchio@sp.senai.br</t>
+  </si>
+  <si>
+    <t>renato.alves@sp.senai.br</t>
+  </si>
+  <si>
+    <t>renato.rsantos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>roberto.vasconcelos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>robinson.morales@sp.senai.br</t>
+  </si>
+  <si>
+    <t>robson.cicero@sp.senai.br</t>
+  </si>
+  <si>
+    <t>robson.zukurov@sp.senai.br</t>
+  </si>
+  <si>
+    <t>rodrigo.araujo@sp.senai.br</t>
+  </si>
+  <si>
+    <t>roger.rocha@sp.senai.br</t>
+  </si>
+  <si>
+    <t>rogerio.lacerda@sp.senai.br</t>
+  </si>
+  <si>
+    <t>ronaldo.souza@sp.senai.br</t>
+  </si>
+  <si>
+    <t>ronaldo.dosantos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>rosana.bsilva@sp.senai.br</t>
+  </si>
+  <si>
+    <t>roseli.oliveira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>roseli.nunes@sp.senai.br</t>
+  </si>
+  <si>
+    <t>rosileni.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>samuel.ferreira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>sergio.sousa@sp.senai.br</t>
+  </si>
+  <si>
+    <t>sergio.caldeira@sp.senai.br</t>
+  </si>
+  <si>
+    <t>thales.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>thiago.almeida@sp.senai.br</t>
+  </si>
+  <si>
+    <t>vagner.jaco@sp.senai.br</t>
+  </si>
+  <si>
+    <t>vpaschoal@sp.senai.br</t>
+  </si>
+  <si>
+    <t>vera.mendes@sp.senai.br</t>
+  </si>
+  <si>
+    <t>vicente.santos@sp.senai.br</t>
+  </si>
+  <si>
+    <t>vilmar.marcal@sp.senai.br</t>
+  </si>
+  <si>
+    <t>walter.augusto@sp.senai.br</t>
+  </si>
+  <si>
+    <t>Adriana Oliveira</t>
+  </si>
+  <si>
+    <t>Adriana Ramos</t>
+  </si>
+  <si>
+    <t>Agnaldo Santos</t>
+  </si>
+  <si>
+    <t>Ailton Sacramento</t>
+  </si>
+  <si>
+    <t>Alan Lima</t>
+  </si>
+  <si>
+    <t>Alan Fernandes</t>
+  </si>
+  <si>
+    <t>Aldeimara Toaldo</t>
+  </si>
+  <si>
+    <t>Aldemar Filho</t>
+  </si>
+  <si>
+    <t>Alexsandro Ribeiro</t>
+  </si>
+  <si>
+    <t>Allan Sanches</t>
+  </si>
+  <si>
+    <t>Andre Paz</t>
+  </si>
+  <si>
+    <t>Andre Santos</t>
+  </si>
+  <si>
+    <t>Andressa Silva</t>
+  </si>
+  <si>
+    <t>Andreza Cavalari</t>
+  </si>
+  <si>
+    <t>Antonio Silva</t>
+  </si>
+  <si>
+    <t>Antonio Marquezino</t>
+  </si>
+  <si>
+    <t>Antonio Flores</t>
+  </si>
+  <si>
+    <t>Augusto Neto</t>
+  </si>
+  <si>
+    <t>Bruno Rodrigues</t>
+  </si>
+  <si>
+    <t>Caio Garcia</t>
+  </si>
+  <si>
+    <t>Caio Silva</t>
+  </si>
+  <si>
+    <t>Carlos Cleto</t>
+  </si>
+  <si>
+    <t>Carlos Brito</t>
+  </si>
+  <si>
+    <t>Catia Mossim</t>
+  </si>
+  <si>
+    <t>Celso Pinto</t>
+  </si>
+  <si>
+    <t>Cesar Goncalves</t>
+  </si>
+  <si>
+    <t>Christian Dias</t>
+  </si>
+  <si>
+    <t>Claudia Silva</t>
+  </si>
+  <si>
+    <t>Claudia Xavier</t>
+  </si>
+  <si>
+    <t>Claudio Lima</t>
+  </si>
+  <si>
+    <t>Clayton Barbieri</t>
+  </si>
+  <si>
+    <t>Cleberson Moura</t>
+  </si>
+  <si>
+    <t>Cristiano Silva</t>
+  </si>
+  <si>
+    <t>Daniel Silva</t>
+  </si>
+  <si>
+    <t>Daniel Correa</t>
+  </si>
+  <si>
+    <t>Dejair Lacerda</t>
+  </si>
+  <si>
+    <t>Denise Santos</t>
+  </si>
+  <si>
+    <t>Dimitri Julio</t>
+  </si>
+  <si>
+    <t>Diogo Farias</t>
+  </si>
+  <si>
+    <t>Douglas Reis</t>
+  </si>
+  <si>
+    <t>Dulceni Oliveira</t>
+  </si>
+  <si>
+    <t>Edilson Santos</t>
+  </si>
+  <si>
+    <t>Edione Assuncao</t>
+  </si>
+  <si>
+    <t>Edson Costa</t>
+  </si>
+  <si>
+    <t>Eduardo Pereira</t>
+  </si>
+  <si>
+    <t>Eduardo Florio</t>
+  </si>
+  <si>
+    <t>Eduardo Gomes</t>
+  </si>
+  <si>
+    <t>Eduardo Augusto</t>
+  </si>
+  <si>
+    <t>Eduardo Santos</t>
+  </si>
+  <si>
+    <t>Eleonora Queiroz</t>
+  </si>
+  <si>
+    <t>Eliana Lima</t>
+  </si>
+  <si>
+    <t>Elisangela Santos</t>
+  </si>
+  <si>
+    <t>Emanoel Chagas</t>
+  </si>
+  <si>
+    <t>Emiliano Constenla</t>
+  </si>
+  <si>
+    <t>Enio Queiroz</t>
+  </si>
+  <si>
+    <t>Erick Costa</t>
+  </si>
+  <si>
+    <t>Estevao Francani</t>
+  </si>
+  <si>
+    <t>Etiano Filho</t>
+  </si>
+  <si>
+    <t>Evandro Goncalves</t>
+  </si>
+  <si>
+    <t>Everaldo Reis</t>
+  </si>
+  <si>
+    <t>Fabio Saito</t>
+  </si>
+  <si>
+    <t>Felipe Silva</t>
+  </si>
+  <si>
+    <t>Fernando Pereira</t>
+  </si>
+  <si>
+    <t>Fernando Silva</t>
+  </si>
+  <si>
+    <t>Fernando Lauris</t>
+  </si>
+  <si>
+    <t>Giovanny Santos</t>
+  </si>
+  <si>
+    <t>Gleiton Melo</t>
+  </si>
+  <si>
+    <t>Guilherme Rocillo</t>
+  </si>
+  <si>
+    <t>Gustavo Ferraz</t>
+  </si>
+  <si>
+    <t>Gustavo Borges</t>
+  </si>
+  <si>
+    <t>Gustavo Feriani</t>
+  </si>
+  <si>
+    <t>Gutenberg Rego</t>
+  </si>
+  <si>
+    <t>Helio Cardoso</t>
+  </si>
+  <si>
+    <t>Henrique Sales</t>
+  </si>
+  <si>
+    <t>Hermom Moreira</t>
+  </si>
+  <si>
+    <t>Ivone Costa</t>
+  </si>
+  <si>
+    <t>Jaime Silva</t>
+  </si>
+  <si>
+    <t>Jair Alves</t>
+  </si>
+  <si>
+    <t>Jaqueline Souza</t>
+  </si>
+  <si>
+    <t>Jarbas Pasoto</t>
+  </si>
+  <si>
+    <t>Joao Cardenas</t>
+  </si>
+  <si>
+    <t>Jose Ferreira</t>
+  </si>
+  <si>
+    <t>Jose Silva</t>
+  </si>
+  <si>
+    <t>Juliana Ferraz</t>
+  </si>
+  <si>
+    <t>Jurandir Santos</t>
+  </si>
+  <si>
+    <t>Leandro Chianca</t>
+  </si>
+  <si>
+    <t>Leandro Silva</t>
+  </si>
+  <si>
+    <t>Leonardo Meneghetti</t>
+  </si>
+  <si>
+    <t>Liza Oliveira</t>
+  </si>
+  <si>
+    <t>Lucas Flores</t>
+  </si>
+  <si>
+    <t>Lucas Capelini</t>
+  </si>
+  <si>
+    <t>Luis Zambon</t>
+  </si>
+  <si>
+    <t>Luis Junior</t>
+  </si>
+  <si>
+    <t>Luiz Dutra</t>
+  </si>
+  <si>
+    <t>Manoel Filho</t>
+  </si>
+  <si>
+    <t>Marcel Porto</t>
+  </si>
+  <si>
+    <t>Marcelio Mata</t>
+  </si>
+  <si>
+    <t>Marcelo Silva</t>
+  </si>
+  <si>
+    <t>Marcelo Cavalcante</t>
+  </si>
+  <si>
+    <t>Marcelo Azevedo</t>
+  </si>
+  <si>
+    <t>Marcelo Santos</t>
+  </si>
+  <si>
+    <t>Marcia Lopes</t>
+  </si>
+  <si>
+    <t>Marcio Carneiro</t>
+  </si>
+  <si>
+    <t>Marcio Corazzim</t>
+  </si>
+  <si>
+    <t>Marco Silva</t>
+  </si>
+  <si>
+    <t>Maria Almeida</t>
+  </si>
+  <si>
+    <t>Mariana Santos</t>
+  </si>
+  <si>
+    <t>Mariana Motta</t>
+  </si>
+  <si>
+    <t>Mario Filho</t>
+  </si>
+  <si>
+    <t>Marli Poli</t>
+  </si>
+  <si>
+    <t>Marta Gomes</t>
+  </si>
+  <si>
+    <t>Mauricio Geraldes</t>
+  </si>
+  <si>
+    <t>Mauro Santos</t>
+  </si>
+  <si>
+    <t>Maury Machado</t>
+  </si>
+  <si>
+    <t>Mayke Silva</t>
+  </si>
+  <si>
+    <t>Nildevania Souza</t>
+  </si>
+  <si>
+    <t>Paulo Baia</t>
+  </si>
+  <si>
+    <t>Paulo Santos</t>
+  </si>
+  <si>
+    <t>Paulo Matos</t>
+  </si>
+  <si>
+    <t>Pedro Oliveira</t>
+  </si>
+  <si>
+    <t>Pedro Costa</t>
+  </si>
+  <si>
+    <t>Priscila Medina</t>
+  </si>
+  <si>
+    <t>Rafael Santos</t>
+  </si>
+  <si>
+    <t>Reginaldo Bochicchio</t>
+  </si>
+  <si>
+    <t>Renato Alves</t>
+  </si>
+  <si>
+    <t>Renato Santos</t>
+  </si>
+  <si>
+    <t>Roberto Vasconcelos</t>
+  </si>
+  <si>
+    <t>Robinson Morales</t>
+  </si>
+  <si>
+    <t>Robson Silva</t>
+  </si>
+  <si>
+    <t>Robson Nascimento</t>
+  </si>
+  <si>
+    <t>Rodrigo Araujo</t>
+  </si>
+  <si>
+    <t>Roger Rocha</t>
+  </si>
+  <si>
+    <t>Rogerio Lacerda</t>
+  </si>
+  <si>
+    <t>Ronaldo Souza</t>
+  </si>
+  <si>
+    <t>Ronaldo Santos</t>
+  </si>
+  <si>
+    <t>Rosana Silva</t>
+  </si>
+  <si>
+    <t>Roseli Oliveira</t>
+  </si>
+  <si>
+    <t>Roseli Nunes</t>
+  </si>
+  <si>
+    <t>Rosileni Santos</t>
+  </si>
+  <si>
+    <t>Samuel Ferreira</t>
+  </si>
+  <si>
+    <t>Sergio Sousa</t>
+  </si>
+  <si>
+    <t>Sergio Caldeira</t>
+  </si>
+  <si>
+    <t>Thales Santos</t>
+  </si>
+  <si>
+    <t>Thiago Almeida</t>
+  </si>
+  <si>
+    <t>Tiago Neves</t>
+  </si>
+  <si>
+    <t>Vagner Jaco</t>
+  </si>
+  <si>
+    <t>Vanderson Paschoal</t>
+  </si>
+  <si>
+    <t>Vera Mendes</t>
+  </si>
+  <si>
+    <t>Vicente Santos</t>
+  </si>
+  <si>
+    <t>Vilmar Marcal</t>
+  </si>
+  <si>
+    <t>Walter Ferreira</t>
+  </si>
+  <si>
+    <t>Willian Franco</t>
+  </si>
+  <si>
+    <t>Daniela Furquim</t>
+  </si>
+  <si>
+    <t>Julio Silva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,19 +1025,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -460,15 +1385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B6E24-E669-4F2B-A946-F986EB9756A7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,10 +1414,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -499,21 +1425,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -521,22 +1447,1710 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>241</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>243</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>260</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>261</v>
+      </c>
+      <c r="B102" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>268</v>
+      </c>
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>274</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>275</v>
+      </c>
+      <c r="B117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>283</v>
+      </c>
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>286</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>287</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>289</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>291</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>293</v>
+      </c>
+      <c r="B135" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>294</v>
+      </c>
+      <c r="B136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>296</v>
+      </c>
+      <c r="B138" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>299</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>300</v>
+      </c>
+      <c r="B142" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>301</v>
+      </c>
+      <c r="B143" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>302</v>
+      </c>
+      <c r="B144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>303</v>
+      </c>
+      <c r="B145" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>304</v>
+      </c>
+      <c r="B146" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>305</v>
+      </c>
+      <c r="B147" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>307</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>308</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>309</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>313</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>314</v>
+      </c>
+      <c r="B156" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>315</v>
+      </c>
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{26CF9D09-15CB-4EFB-9D6F-1623980D6A3C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{8BD8DE89-5C69-4340-9F40-A55C5F84FCD2}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4EE30FB9-9A43-4BFA-B219-4BD430A4F716}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{024936F1-3625-4DC3-9FD1-4D6D2F6FA3FD}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>